--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43001,6 +43001,41 @@
         <v>350000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>300000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43036,6 +43036,41 @@
         <v>300000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43071,6 +43071,41 @@
         <v>200</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43106,6 +43106,41 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43141,6 +43141,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43176,6 +43176,41 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>88900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43211,6 +43211,41 @@
         <v>88900</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43246,6 +43246,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>609100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43281,6 +43281,41 @@
         <v>609100</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1250900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43316,6 +43316,41 @@
         <v>1250900</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>319400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43351,6 +43351,41 @@
         <v>319400</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>189000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43386,6 +43386,41 @@
         <v>189000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>326100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43421,6 +43421,76 @@
         <v>326100</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>842900</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1448500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43491,6 +43491,76 @@
         <v>1448500</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>547800</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>455900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43561,6 +43561,41 @@
         <v>455900</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>196900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43596,6 +43596,43 @@
         <v>196900</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43633,6 +43633,41 @@
         </is>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>55000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43668,6 +43668,41 @@
         <v>55000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1142400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43703,6 +43703,76 @@
         <v>1142400</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>136800</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>295000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43773,6 +43773,41 @@
         <v>295000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1933100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43808,6 +43808,41 @@
         <v>1933100</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1159500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2394"/>
+  <dimension ref="A1:I2395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84198,6 +84198,41 @@
         <v>1159500</v>
       </c>
     </row>
+    <row r="2395">
+      <c r="A2395" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2395" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2395" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D2395" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E2395" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2395" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2395" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2395" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2395" t="n">
+        <v>697400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2395"/>
+  <dimension ref="A1:I2396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84233,6 +84233,41 @@
         <v>697400</v>
       </c>
     </row>
+    <row r="2396">
+      <c r="A2396" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2396" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2396" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D2396" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E2396" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2396" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2396" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2396" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2396" t="n">
+        <v>902500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2396"/>
+  <dimension ref="A1:I2397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84268,6 +84268,41 @@
         <v>902500</v>
       </c>
     </row>
+    <row r="2397">
+      <c r="A2397" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2397" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2397" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D2397" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E2397" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2397" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2397" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2397" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2397" t="n">
+        <v>423900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2397"/>
+  <dimension ref="A1:I2398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84303,6 +84303,41 @@
         <v>423900</v>
       </c>
     </row>
+    <row r="2398">
+      <c r="A2398" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2398" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2398" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D2398" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E2398" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2398" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2398" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2398" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2398" t="n">
+        <v>917000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2398"/>
+  <dimension ref="A1:I2399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84338,6 +84338,41 @@
         <v>917000</v>
       </c>
     </row>
+    <row r="2399">
+      <c r="A2399" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2399" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2399" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D2399" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E2399" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2399" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2399" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2399" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2399" t="n">
+        <v>625000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2399"/>
+  <dimension ref="A1:I2400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84373,6 +84373,41 @@
         <v>625000</v>
       </c>
     </row>
+    <row r="2400">
+      <c r="A2400" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2400" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2400" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D2400" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E2400" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2400" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2400" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2400" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2400" t="n">
+        <v>462000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2400"/>
+  <dimension ref="A1:I2401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84408,6 +84408,41 @@
         <v>462000</v>
       </c>
     </row>
+    <row r="2401">
+      <c r="A2401" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2401" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2401" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D2401" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E2401" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2401" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2401" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2401" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2401" t="n">
+        <v>96000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2401"/>
+  <dimension ref="A1:I2402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84443,6 +84443,41 @@
         <v>96000</v>
       </c>
     </row>
+    <row r="2402">
+      <c r="A2402" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2402" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2402" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D2402" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E2402" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2402" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2402" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2402" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2402" t="n">
+        <v>470100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2402"/>
+  <dimension ref="A1:I2403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84478,6 +84478,41 @@
         <v>470100</v>
       </c>
     </row>
+    <row r="2403">
+      <c r="A2403" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2403" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2403" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D2403" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E2403" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2403" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2403" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2403" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2403" t="n">
+        <v>190000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2403"/>
+  <dimension ref="A1:I2404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84513,6 +84513,41 @@
         <v>190000</v>
       </c>
     </row>
+    <row r="2404">
+      <c r="A2404" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2404" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2404" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D2404" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E2404" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2404" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2404" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2404" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2404" t="n">
+        <v>823800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2404"/>
+  <dimension ref="A1:I2405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84548,6 +84548,41 @@
         <v>823800</v>
       </c>
     </row>
+    <row r="2405">
+      <c r="A2405" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2405" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2405" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D2405" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E2405" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2405" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2405" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2405" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2405" t="n">
+        <v>35000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2405"/>
+  <dimension ref="A1:I2406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84583,6 +84583,41 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="2406">
+      <c r="A2406" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2406" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2406" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D2406" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E2406" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2406" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2406" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2406" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2406" t="n">
+        <v>740100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2406"/>
+  <dimension ref="A1:I2407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84618,6 +84618,41 @@
         <v>740100</v>
       </c>
     </row>
+    <row r="2407">
+      <c r="A2407" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2407" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2407" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D2407" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E2407" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2407" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2407" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2407" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2407" t="n">
+        <v>434600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2407"/>
+  <dimension ref="A1:I2408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84653,6 +84653,41 @@
         <v>434600</v>
       </c>
     </row>
+    <row r="2408">
+      <c r="A2408" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2408" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2408" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D2408" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E2408" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2408" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2408" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2408" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2408" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0093.xlsx
+++ b/data/0093.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2408"/>
+  <dimension ref="A1:I2409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84688,6 +84688,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="2409">
+      <c r="A2409" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2409" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2409" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
+      </c>
+      <c r="D2409" t="inlineStr">
+        <is>
+          <t>SOLUTN</t>
+        </is>
+      </c>
+      <c r="E2409" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2409" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2409" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2409" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2409" t="n">
+        <v>60000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
